--- a/$template_timingchart.xlsx
+++ b/$template_timingchart.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>版数</t>
     <rPh sb="0" eb="2">
@@ -65,6 +65,20 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウンタ（斜め）修正</t>
+    <rPh sb="5" eb="6">
+      <t>ナナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -22428,7 +22442,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -22442,8 +22456,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4255477" y="4589585"/>
-          <a:ext cx="967154" cy="0"/>
+          <a:off x="3136232" y="4227095"/>
+          <a:ext cx="681790" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -23740,66 +23754,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="339" name="直線コネクタ 338"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="367" idx="0"/>
-          <a:endCxn id="340" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6383215" y="4079631"/>
-          <a:ext cx="0" cy="509954"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -23810,8 +23772,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5222631" y="4079631"/>
-          <a:ext cx="1160584" cy="509954"/>
+          <a:off x="3818022" y="3818021"/>
+          <a:ext cx="681790" cy="409074"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -24032,13 +23994,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -24050,8 +24012,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6383215" y="4079631"/>
-          <a:ext cx="1934308" cy="509954"/>
+          <a:off x="4499811" y="3818021"/>
+          <a:ext cx="954505" cy="409074"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -24118,14 +24080,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -24137,9 +24099,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8317523" y="4079631"/>
-          <a:ext cx="0" cy="509954"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5454316" y="3818021"/>
+          <a:ext cx="2" cy="409074"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -24170,15 +24132,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>276</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>276</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>136358</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24187,8 +24149,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5609492" y="5099539"/>
-          <a:ext cx="1160585" cy="169984"/>
+          <a:off x="4091013" y="4636169"/>
+          <a:ext cx="818147" cy="136357"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -25358,15 +25320,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>169984</xdr:rowOff>
+      <xdr:colOff>276</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>276</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>2870</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -25682,12 +25644,12 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>136358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>276</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -29234,6 +29196,627 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>136634</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="368" name="フリーフォーム 367"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6421821" y="3825766"/>
+          <a:ext cx="819807" cy="409902"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 797169"/>
+            <a:gd name="connsiteY0" fmla="*/ 498231 h 498231"/>
+            <a:gd name="connsiteX1" fmla="*/ 797169 w 797169"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 498231"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 797169"/>
+            <a:gd name="connsiteY0" fmla="*/ 498231 h 498231"/>
+            <a:gd name="connsiteX1" fmla="*/ 659198 w 797169"/>
+            <a:gd name="connsiteY1" fmla="*/ 89426 h 498231"/>
+            <a:gd name="connsiteX2" fmla="*/ 797169 w 797169"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 498231"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 797170"/>
+            <a:gd name="connsiteY0" fmla="*/ 408805 h 453550"/>
+            <a:gd name="connsiteX1" fmla="*/ 659198 w 797170"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 453550"/>
+            <a:gd name="connsiteX2" fmla="*/ 797170 w 797170"/>
+            <a:gd name="connsiteY2" fmla="*/ 408805 h 453550"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 797170"/>
+            <a:gd name="connsiteY0" fmla="*/ 498231 h 535964"/>
+            <a:gd name="connsiteX1" fmla="*/ 797170 w 797170"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 535964"/>
+            <a:gd name="connsiteX2" fmla="*/ 797170 w 797170"/>
+            <a:gd name="connsiteY2" fmla="*/ 498231 h 535964"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 797170"/>
+            <a:gd name="connsiteY0" fmla="*/ 498231 h 498230"/>
+            <a:gd name="connsiteX1" fmla="*/ 797170 w 797170"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 498230"/>
+            <a:gd name="connsiteX2" fmla="*/ 797170 w 797170"/>
+            <a:gd name="connsiteY2" fmla="*/ 498231 h 498230"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="797170" h="498230">
+              <a:moveTo>
+                <a:pt x="0" y="498231"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="797170" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="797170" y="498231"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>136081</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="369" name="フリーフォーム 368"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7635765" y="3818021"/>
+          <a:ext cx="545709" cy="409074"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 797169"/>
+            <a:gd name="connsiteY0" fmla="*/ 498231 h 498231"/>
+            <a:gd name="connsiteX1" fmla="*/ 797169 w 797169"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 498231"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="797169" h="498231">
+              <a:moveTo>
+                <a:pt x="0" y="498231"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="797169" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>136357</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>136081</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>277</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="371" name="直線コネクタ 370"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="368" idx="2"/>
+          <a:endCxn id="369" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7226968" y="4227095"/>
+          <a:ext cx="408797" cy="277"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>136081</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="386" name="直線コネクタ 385"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="369" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181474" y="3818021"/>
+          <a:ext cx="545154" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>136355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>5</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="387" name="フリーフォーム 386"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6408821" y="4636166"/>
+          <a:ext cx="681790" cy="136365"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 781050"/>
+            <a:gd name="connsiteY0" fmla="*/ 180975 h 180975"/>
+            <a:gd name="connsiteX1" fmla="*/ 19050 w 781050"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 180975"/>
+            <a:gd name="connsiteX2" fmla="*/ 781050 w 781050"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 180975"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 771525"/>
+            <a:gd name="connsiteY0" fmla="*/ 180975 h 180975"/>
+            <a:gd name="connsiteX1" fmla="*/ 19050 w 771525"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 180975"/>
+            <a:gd name="connsiteX2" fmla="*/ 771525 w 771525"/>
+            <a:gd name="connsiteY2" fmla="*/ 9525 h 180975"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 771525"/>
+            <a:gd name="connsiteY0" fmla="*/ 171450 h 171450"/>
+            <a:gd name="connsiteX1" fmla="*/ 9526 w 771525"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 171450"/>
+            <a:gd name="connsiteX2" fmla="*/ 771525 w 771525"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 171450"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 761999"/>
+            <a:gd name="connsiteY0" fmla="*/ 171449 h 171449"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 761999"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 171449"/>
+            <a:gd name="connsiteX2" fmla="*/ 761999 w 761999"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 171449"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 0"/>
+            <a:gd name="connsiteY0" fmla="*/ 171449 h 171449"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 0"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 171449"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 0"/>
+            <a:gd name="connsiteY0" fmla="*/ 20000 h 20000"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 0"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 20000"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 10000"/>
+            <a:gd name="connsiteY0" fmla="*/ 10000 h 10000"/>
+            <a:gd name="connsiteX1" fmla="*/ 10000 w 10000"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 10000"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 10000"/>
+            <a:gd name="connsiteY0" fmla="*/ 10000 h 10000"/>
+            <a:gd name="connsiteX1" fmla="*/ 4941 w 10000"/>
+            <a:gd name="connsiteY1" fmla="*/ 5289 h 10000"/>
+            <a:gd name="connsiteX2" fmla="*/ 10000 w 10000"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 10000"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 10000"/>
+            <a:gd name="connsiteY0" fmla="*/ 4711 h 5624"/>
+            <a:gd name="connsiteX1" fmla="*/ 4941 w 10000"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 5624"/>
+            <a:gd name="connsiteX2" fmla="*/ 10000 w 10000"/>
+            <a:gd name="connsiteY2" fmla="*/ 4701 h 5624"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 10000"/>
+            <a:gd name="connsiteY0" fmla="*/ 8900 h 10473"/>
+            <a:gd name="connsiteX1" fmla="*/ 10000 w 10000"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 10473"/>
+            <a:gd name="connsiteX2" fmla="*/ 10000 w 10000"/>
+            <a:gd name="connsiteY2" fmla="*/ 8882 h 10473"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 10000"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 10473"/>
+            <a:gd name="connsiteX1" fmla="*/ 10000 w 10000"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 10473"/>
+            <a:gd name="connsiteX2" fmla="*/ 10000 w 10000"/>
+            <a:gd name="connsiteY2" fmla="*/ 8882 h 10473"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 10000"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 8882"/>
+            <a:gd name="connsiteX1" fmla="*/ 10000 w 10000"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 8882"/>
+            <a:gd name="connsiteX2" fmla="*/ 10000 w 10000"/>
+            <a:gd name="connsiteY2" fmla="*/ 8882 h 8882"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="10000" h="8882">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="10000" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="10000" y="8882"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>136357</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>136357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>40105</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>136357</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="388" name="フリーフォーム 387"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7226968" y="4636168"/>
+          <a:ext cx="585537" cy="136357"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 781050"/>
+            <a:gd name="connsiteY0" fmla="*/ 180975 h 180975"/>
+            <a:gd name="connsiteX1" fmla="*/ 19050 w 781050"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 180975"/>
+            <a:gd name="connsiteX2" fmla="*/ 781050 w 781050"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 180975"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 771525"/>
+            <a:gd name="connsiteY0" fmla="*/ 180975 h 180975"/>
+            <a:gd name="connsiteX1" fmla="*/ 19050 w 771525"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 180975"/>
+            <a:gd name="connsiteX2" fmla="*/ 771525 w 771525"/>
+            <a:gd name="connsiteY2" fmla="*/ 9525 h 180975"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 771525"/>
+            <a:gd name="connsiteY0" fmla="*/ 171450 h 171450"/>
+            <a:gd name="connsiteX1" fmla="*/ 9526 w 771525"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 171450"/>
+            <a:gd name="connsiteX2" fmla="*/ 771525 w 771525"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 171450"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 761999"/>
+            <a:gd name="connsiteY0" fmla="*/ 171449 h 171449"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 761999"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 171449"/>
+            <a:gd name="connsiteX2" fmla="*/ 761999 w 761999"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 171449"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 0"/>
+            <a:gd name="connsiteY0" fmla="*/ 171449 h 171449"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 0"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 171449"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path h="171449">
+              <a:moveTo>
+                <a:pt x="0" y="171449"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="390" name="直線コネクタ 389"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="340" idx="1"/>
+          <a:endCxn id="367" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4499811" y="3818021"/>
+          <a:ext cx="1" cy="409074"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -29603,9 +30186,15 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>43052</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
